--- a/mySystem/mySystem/xls/PTV/SOP-MFG-305-R03A PTV生产开机确认表.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-305-R03A PTV生产开机确认表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20151124\SOP-MFG-3 生产岗位\305，PTV生产记录20160105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -30,18 +30,6 @@
         <charset val="134"/>
       </rPr>
       <t>确认结果</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>环境卫生确认</t>
     </r>
   </si>
   <si>
@@ -109,9 +97,65 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>车间环境、设备卫生是否符合生产工艺要求。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
   </si>
   <si>
     <r>
@@ -180,338 +224,6 @@
         <charset val="134"/>
       </rPr>
       <t>□</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁袋是否放置到位。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备确认</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩空气供应≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.6MPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底封焊接机是否自检，且正常。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口焊接机是否自检，且正常。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超声波焊接机是否正常。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>泄漏测试仪是否正常。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原材料确认</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原材料规格是否与生产指令单相符。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内包装袋领用数量与批号是否与生产指令单相符。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灭菌指示剂是否领取。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件工具确认</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刀具、胶带、记号笔、签字笔、尺子等用具是否准备且定位。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁水桶、清洁抹布、酒精壶是否准备齐全且已定置。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工具箱、废品箱、废品袋是否齐全</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关文件、记录是否齐全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产现场确认</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产线上不得有与本批生产无关的物料、产品和文件。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,13 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓶口焊接机是否自检，且正常；
-焊线温度是否校准，且符合工艺要求；
-手轮数值是否与产品要求数值一致；
-固定板前端限位板位置符合工艺要求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -598,10 +303,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真空包装机是否正常。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,7 +318,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认人</t>
+      <t>复核人</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +346,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                              </t>
+      <t xml:space="preserve">                                         </t>
     </r>
     <r>
       <rPr>
@@ -664,7 +365,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -683,7 +384,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -694,15 +395,6 @@
         <charset val="134"/>
       </rPr>
       <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,12 +402,82 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人</t>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认人</t>
     </r>
     <r>
       <rPr>
@@ -743,7 +505,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                         </t>
+      <t xml:space="preserve">                                              </t>
     </r>
     <r>
       <rPr>
@@ -762,7 +524,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -781,7 +543,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -792,6 +554,15 @@
         <charset val="134"/>
       </rPr>
       <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,13 +637,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -913,7 +677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1251,59 +1015,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1315,86 +1118,86 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,15 +1505,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="16" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
@@ -1718,30 +1521,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>27</v>
+      <c r="A1" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>28</v>
+      <c r="A3" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1751,344 +1554,248 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
-        <v>3</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38">
-        <v>4</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+  <mergeCells count="22">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
